--- a/report/詳細設計書/詳細設計書_I0001_ログイン画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0001_ログイン画面.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="10410" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
-    <sheet name="IE0001" sheetId="12" r:id="rId1"/>
-    <sheet name="IE0002" sheetId="15" r:id="rId2"/>
+    <sheet name="修正履歴" sheetId="16" r:id="rId1"/>
+    <sheet name="IE0001" sheetId="12" r:id="rId2"/>
+    <sheet name="IE0002" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IE0001'!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0002'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'IE0001'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'IE0002'!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -212,6 +214,41 @@
     <t>李燦周、孟元永</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +302,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -286,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -588,13 +640,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,9 +903,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1080,9 +1302,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="63"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="70"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="71">
+        <v>2</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="74"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="64">
+        <v>3</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="74"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="71">
+        <v>4</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="64">
+        <v>5</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="70"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="71">
+        <v>6</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="74"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="64">
+        <v>7</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="70"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="71">
+        <v>8</v>
+      </c>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="70"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="64">
+        <v>9</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="70"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="71">
+        <v>10</v>
+      </c>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="70"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="64">
+        <v>11</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="71">
+        <v>12</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="70"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="64">
+        <v>13</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="70"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="71">
+        <v>14</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="70"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="64">
+        <v>15</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="70"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="71">
+        <v>16</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="70"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="64">
+        <v>17</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="70"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="64">
+        <v>18</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="70"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="71">
+        <v>19</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="70"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="64">
+        <v>20</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="70"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="64"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="70"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="83"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF25"/>
   <sheetViews>
